--- a/model_metrics.xlsx
+++ b/model_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gargi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFE472F-C912-8848-AB8D-4DA3E5DA04C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A31B8-4BF3-074A-92A1-381727A2A2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35000" yWindow="3740" windowWidth="28040" windowHeight="16940" xr2:uid="{60A8DF48-20EF-D74D-BD09-19DECD9E9BB0}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,6 +472,15 @@
       <c r="B5">
         <v>96.347999999999999</v>
       </c>
+      <c r="C5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.96699999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
